--- a/dati.xlsx
+++ b/dati.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="13">
   <si>
     <t>Nome</t>
   </si>
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,6 +522,98 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>1257</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>1258</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8">
+        <v>1259</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>1260</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dati.xlsx
+++ b/dati.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="17">
   <si>
     <t>Nome</t>
   </si>
@@ -40,10 +40,22 @@
     <t>Giuseppe</t>
   </si>
   <si>
+    <t>giuseppe</t>
+  </si>
+  <si>
     <t>Cangemi</t>
   </si>
   <si>
+    <t>maradona</t>
+  </si>
+  <si>
+    <t>caos</t>
+  </si>
+  <si>
     <t>giuseppecangemi94@gmail.com</t>
+  </si>
+  <si>
+    <t>marado@prova.it</t>
   </si>
   <si>
     <t>derryrockfoto.jpg</t>
@@ -410,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -444,22 +456,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2">
         <v>1254</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -467,22 +479,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F3">
         <v>1255</v>
       </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -490,13 +502,13 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -504,22 +516,22 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>1256</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -527,22 +539,22 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6">
         <v>1257</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -550,22 +562,22 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F7">
         <v>1258</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -573,22 +585,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F8">
         <v>1259</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -596,22 +608,68 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F9">
         <v>1260</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>1261</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11">
+        <v>1262</v>
+      </c>
+      <c r="G11" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
